--- a/common/CardLvUp.xlsx
+++ b/common/CardLvUp.xlsx
@@ -23,6 +23,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">level </t>
     </r>
     <r>
@@ -39,6 +46,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">need_cash </t>
     </r>
     <r>
@@ -94,67 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +130,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,11 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,15 +244,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -251,7 +265,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,13 +286,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,37 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,25 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +543,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,15 +584,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -593,6 +592,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -1099,18 +1107,18 @@
   <sheetPr/>
   <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="F373" sqref="F373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>159</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1155,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>228</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1163,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>310</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1171,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>408</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1179,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>525</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1187,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>664</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1195,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>828</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1203,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1020</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1211,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1243</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1219,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1500</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1227,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1794</v>
+        <v>8779</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1235,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2128</v>
+        <v>10907</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1243,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>2505</v>
+        <v>13412</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1251,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>2928</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1259,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>3400</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1267,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>3924</v>
+        <v>23664</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1275,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>4503</v>
+        <v>28167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1283,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>5140</v>
+        <v>33307</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1291,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>5838</v>
+        <v>39145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1299,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>6600</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1307,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>7429</v>
+        <v>53174</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1315,7 +1323,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>8328</v>
+        <v>61502</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1323,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>9300</v>
+        <v>70802</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1331,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>10348</v>
+        <v>81150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1339,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>11475</v>
+        <v>92625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1347,7 +1355,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>12684</v>
+        <v>105309</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1355,7 +1363,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>13978</v>
+        <v>119287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1363,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>15360</v>
+        <v>134647</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1371,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>16833</v>
+        <v>151480</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1379,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>18400</v>
+        <v>169880</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1387,7 +1395,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>20064</v>
+        <v>189944</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1395,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>21828</v>
+        <v>211772</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1403,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>23695</v>
+        <v>235467</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1411,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>25668</v>
+        <v>261135</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1419,7 +1427,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>27750</v>
+        <v>288885</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1427,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>29944</v>
+        <v>318829</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1435,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>32253</v>
+        <v>351082</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1443,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>34680</v>
+        <v>385762</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1451,7 +1459,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>37228</v>
+        <v>422990</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1459,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>39900</v>
+        <v>462890</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1467,7 +1475,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>42699</v>
+        <v>505589</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1475,7 +1483,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45628</v>
+        <v>551217</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1483,7 +1491,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>48690</v>
+        <v>599907</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1491,7 +1499,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>51888</v>
+        <v>651795</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1499,7 +1507,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>55225</v>
+        <v>707020</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1507,7 +1515,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>58704</v>
+        <v>765724</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1515,7 +1523,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>62328</v>
+        <v>828052</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1523,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>66100</v>
+        <v>894152</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1531,7 +1539,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>70023</v>
+        <v>964175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1539,7 +1547,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>74100</v>
+        <v>1038275</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1547,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>78334</v>
+        <v>1116609</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1555,7 +1563,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>82728</v>
+        <v>1199337</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1563,7 +1571,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>87285</v>
+        <v>1286622</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1571,7 +1579,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>92008</v>
+        <v>1378630</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1579,7 +1587,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>96900</v>
+        <v>1475530</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1587,7 +1595,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>101964</v>
+        <v>1577494</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1595,7 +1603,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>107203</v>
+        <v>1684697</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1603,7 +1611,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>112620</v>
+        <v>1797317</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1611,7 +1619,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>118218</v>
+        <v>1915535</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1619,7 +1627,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>124000</v>
+        <v>2039535</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1627,7 +1635,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>129969</v>
+        <v>2169504</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1635,7 +1643,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>136128</v>
+        <v>2305632</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1643,7 +1651,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>142480</v>
+        <v>2448112</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1651,7 +1659,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>149028</v>
+        <v>2597140</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1659,7 +1667,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>155775</v>
+        <v>2752915</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1667,7 +1675,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>162724</v>
+        <v>2915639</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1675,7 +1683,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>169878</v>
+        <v>3085517</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1683,7 +1691,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>177240</v>
+        <v>3262757</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1691,7 +1699,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>184813</v>
+        <v>3447570</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1699,7 +1707,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>192600</v>
+        <v>3640170</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1707,7 +1715,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>200604</v>
+        <v>3840774</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1715,7 +1723,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>208828</v>
+        <v>4049602</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1723,7 +1731,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>217275</v>
+        <v>4266877</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1731,7 +1739,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>225948</v>
+        <v>4492825</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1739,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>234850</v>
+        <v>4727675</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1747,7 +1755,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>243984</v>
+        <v>4971659</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1755,7 +1763,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>253353</v>
+        <v>5225012</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1763,7 +1771,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>262960</v>
+        <v>5487972</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1771,7 +1779,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>272808</v>
+        <v>5760780</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1779,7 +1787,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>282900</v>
+        <v>6043680</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1787,7 +1795,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>293239</v>
+        <v>6336919</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1795,7 +1803,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>303828</v>
+        <v>6640747</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1803,7 +1811,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>314670</v>
+        <v>6955417</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1811,7 +1819,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>325768</v>
+        <v>7281185</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1819,7 +1827,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>337125</v>
+        <v>7618310</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1827,7 +1835,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>348744</v>
+        <v>7967054</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1835,7 +1843,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>360628</v>
+        <v>8327682</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1843,7 +1851,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>372780</v>
+        <v>8700462</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1851,7 +1859,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>385203</v>
+        <v>9085665</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1859,7 +1867,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>397900</v>
+        <v>9483565</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1867,7 +1875,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>410874</v>
+        <v>9894439</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1875,7 +1883,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>424128</v>
+        <v>10318567</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1883,7 +1891,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>437665</v>
+        <v>10756232</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1891,7 +1899,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>451488</v>
+        <v>11207720</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1899,7 +1907,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>465600</v>
+        <v>11673320</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1907,7 +1915,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>480004</v>
+        <v>12153324</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1915,7 +1923,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>494703</v>
+        <v>12648027</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1923,7 +1931,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>509700</v>
+        <v>13157727</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1931,7 +1939,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>524998</v>
+        <v>13682725</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1939,7 +1947,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>540600</v>
+        <v>14223325</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1947,7 +1955,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>556509</v>
+        <v>14779834</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1955,7 +1963,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>572728</v>
+        <v>15352562</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1963,7 +1971,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>589260</v>
+        <v>15941822</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1971,7 +1979,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>606108</v>
+        <v>16547930</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1979,7 +1987,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>623275</v>
+        <v>17171205</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1987,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>640764</v>
+        <v>17811969</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1995,7 +2003,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>658578</v>
+        <v>18470547</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2003,7 +2011,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>676720</v>
+        <v>19147267</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2011,7 +2019,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>695193</v>
+        <v>19842460</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2019,7 +2027,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>714000</v>
+        <v>20556460</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2027,7 +2035,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>733144</v>
+        <v>21289604</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2035,7 +2043,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>752628</v>
+        <v>22042232</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2043,7 +2051,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>772455</v>
+        <v>22814687</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2051,7 +2059,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>792628</v>
+        <v>23607315</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2059,7 +2067,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>813150</v>
+        <v>24420465</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2067,7 +2075,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>834024</v>
+        <v>25254489</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2075,7 +2083,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>855253</v>
+        <v>26109742</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2083,7 +2091,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>876840</v>
+        <v>26986582</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2091,7 +2099,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>898788</v>
+        <v>27885370</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2099,7 +2107,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>921100</v>
+        <v>28806470</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2107,7 +2115,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>943779</v>
+        <v>29750249</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2115,7 +2123,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>966828</v>
+        <v>30717077</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2123,7 +2131,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>990250</v>
+        <v>31707327</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2131,7 +2139,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>1014048</v>
+        <v>32721375</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2139,7 +2147,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>1038225</v>
+        <v>33759600</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2147,7 +2155,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>1062784</v>
+        <v>34822384</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2155,7 +2163,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>1087728</v>
+        <v>35910112</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2163,7 +2171,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>1113060</v>
+        <v>37023172</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2171,7 +2179,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>1138783</v>
+        <v>38161955</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2179,7 +2187,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>1164900</v>
+        <v>39326855</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2187,7 +2195,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>1191414</v>
+        <v>40518269</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2195,7 +2203,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>1218328</v>
+        <v>41736597</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2203,7 +2211,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>1245645</v>
+        <v>42982242</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2211,7 +2219,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>1273368</v>
+        <v>44255610</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2219,7 +2227,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>1301500</v>
+        <v>45557110</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2227,7 +2235,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>1330044</v>
+        <v>46887154</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2235,7 +2243,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>1359003</v>
+        <v>48246157</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2243,7 +2251,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>1388380</v>
+        <v>49634537</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2251,7 +2259,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>1418178</v>
+        <v>51052715</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2259,7 +2267,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>1448400</v>
+        <v>52501115</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2267,7 +2275,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>1479049</v>
+        <v>53980164</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2275,7 +2283,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>1510128</v>
+        <v>55490292</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2283,7 +2291,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>1541640</v>
+        <v>57031932</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2291,7 +2299,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>1573588</v>
+        <v>58605520</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2299,7 +2307,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>1605975</v>
+        <v>60211495</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2307,7 +2315,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>1638804</v>
+        <v>61850299</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2315,7 +2323,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>1672078</v>
+        <v>63522377</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2323,7 +2331,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>1705800</v>
+        <v>65228177</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2331,7 +2339,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>1739973</v>
+        <v>66968150</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2339,7 +2347,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>1774600</v>
+        <v>68742750</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2347,7 +2355,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>1809684</v>
+        <v>70552434</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2355,7 +2363,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>1845228</v>
+        <v>72397662</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2363,7 +2371,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>1881235</v>
+        <v>74278897</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2371,7 +2379,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>1917708</v>
+        <v>76196605</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2379,7 +2387,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>1954650</v>
+        <v>78151255</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2387,7 +2395,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>1992064</v>
+        <v>80143319</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2395,7 +2403,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>2029953</v>
+        <v>82173272</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2403,7 +2411,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>2068320</v>
+        <v>84241592</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2411,7 +2419,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>2107168</v>
+        <v>86348760</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2419,7 +2427,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>2146500</v>
+        <v>88495260</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2427,7 +2435,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>2186319</v>
+        <v>90681579</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2435,7 +2443,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>2226628</v>
+        <v>92908207</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2443,7 +2451,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>2267430</v>
+        <v>95175637</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2451,7 +2459,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>2308728</v>
+        <v>97484365</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2459,7 +2467,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>2350525</v>
+        <v>99834890</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2467,7 +2475,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>2392824</v>
+        <v>102227714</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2475,7 +2483,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>2435628</v>
+        <v>104663342</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2483,7 +2491,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>2478940</v>
+        <v>107142282</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2491,7 +2499,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>2522763</v>
+        <v>109665045</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2499,7 +2507,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>2567100</v>
+        <v>112232145</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2507,7 +2515,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>2611954</v>
+        <v>114844099</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2515,7 +2523,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>2657328</v>
+        <v>117501427</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2523,7 +2531,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>2703225</v>
+        <v>120204652</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2531,7 +2539,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>2749648</v>
+        <v>122954300</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2539,7 +2547,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>2796600</v>
+        <v>125750900</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2547,7 +2555,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>2844084</v>
+        <v>128594984</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2555,7 +2563,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>2892103</v>
+        <v>131487087</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2563,7 +2571,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>2940660</v>
+        <v>134427747</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2571,7 +2579,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>2989758</v>
+        <v>137417505</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2579,7 +2587,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>3039400</v>
+        <v>140456905</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2587,7 +2595,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>3089589</v>
+        <v>143546494</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2595,7 +2603,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>3140328</v>
+        <v>146686822</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2603,7 +2611,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>3191620</v>
+        <v>149878442</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2611,7 +2619,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>3243468</v>
+        <v>153121910</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2619,7 +2627,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>3295875</v>
+        <v>156417785</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2627,7 +2635,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>3348844</v>
+        <v>159766629</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2635,7 +2643,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>3402378</v>
+        <v>163169007</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2643,7 +2651,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>3456480</v>
+        <v>166625487</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2651,7 +2659,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>3511153</v>
+        <v>170136640</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2659,7 +2667,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>3566400</v>
+        <v>173703040</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2667,7 +2675,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>3622224</v>
+        <v>177325264</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2675,7 +2683,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>3678628</v>
+        <v>181003892</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2683,7 +2691,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>3735615</v>
+        <v>184739507</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2691,7 +2699,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>3793188</v>
+        <v>188532695</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2699,7 +2707,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>3851350</v>
+        <v>192384045</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2707,7 +2715,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>3910104</v>
+        <v>196294149</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2715,7 +2723,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>3969453</v>
+        <v>200263602</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2723,7 +2731,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>4029400</v>
+        <v>204293002</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2731,7 +2739,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>4294445.4</v>
+        <v>208587447.4</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2739,7 +2747,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>4566210</v>
+        <v>213153657.4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2747,7 +2755,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>4844787.85</v>
+        <v>217998445.25</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2755,7 +2763,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>5130273.6</v>
+        <v>223128718.85</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2763,7 +2771,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>5422762.5</v>
+        <v>228551481.35</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2771,7 +2779,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>5722350.4</v>
+        <v>234273831.75</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2779,7 +2787,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>6029133.75</v>
+        <v>240302965.5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2787,7 +2795,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>6343209.6</v>
+        <v>246646175.1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2795,7 +2803,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>6664675.6</v>
+        <v>253310850.7</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2803,7 +2811,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>6993630</v>
+        <v>260304480.7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2811,7 +2819,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>7330171.65</v>
+        <v>267634652.35</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2819,7 +2827,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>7674400</v>
+        <v>275309052.35</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2827,7 +2835,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>8026415.1</v>
+        <v>283335467.45</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2835,7 +2843,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>8386317.6</v>
+        <v>291721785.05</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2843,7 +2851,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>8754208.75</v>
+        <v>300475993.8</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2851,7 +2859,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>9130190.4</v>
+        <v>309606184.2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2859,7 +2867,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>9514365</v>
+        <v>319120549.2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2867,7 +2875,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>9906835.6</v>
+        <v>329027384.8</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2875,7 +2883,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>10307705.85</v>
+        <v>339335090.65</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2883,7 +2891,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>10717080</v>
+        <v>350052170.65</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2891,7 +2899,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>11135062.9</v>
+        <v>361187233.55</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2899,7 +2907,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>11561760</v>
+        <v>372748993.55</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2907,7 +2915,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>11997277.35</v>
+        <v>384746270.9</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2915,7 +2923,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>12441721.6</v>
+        <v>397187992.5</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2923,7 +2931,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>12895200</v>
+        <v>410083192.5</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2931,7 +2939,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>13357820.4</v>
+        <v>423441012.9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2939,7 +2947,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>13829691.25</v>
+        <v>437270704.15</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2947,7 +2955,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>14310921.6</v>
+        <v>451581625.75</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2955,7 +2963,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>14801621.1</v>
+        <v>466383246.85</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2963,7 +2971,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>15301900</v>
+        <v>481685146.85</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2971,7 +2979,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>15811869.15</v>
+        <v>497497016</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2979,7 +2987,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>16331640</v>
+        <v>513828656</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2987,7 +2995,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>16861324.6</v>
+        <v>530689980.6</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2995,7 +3003,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>17401035.6</v>
+        <v>548091016.2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3003,7 +3011,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>17950886.25</v>
+        <v>566041902.45</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3011,7 +3019,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>18510990.4</v>
+        <v>584552892.85</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3019,7 +3027,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>19081462.5</v>
+        <v>603634355.35</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3027,7 +3035,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>19662417.6</v>
+        <v>623296772.95</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3035,7 +3043,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>20253971.35</v>
+        <v>643550744.3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3043,7 +3051,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>20856240</v>
+        <v>664406984.3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3051,7 +3059,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>21469340.4</v>
+        <v>685876324.7</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3059,7 +3067,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>22093390</v>
+        <v>707969714.7</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3067,7 +3075,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>22728506.85</v>
+        <v>730698221.55</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3075,7 +3083,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>23374809.6</v>
+        <v>754073031.15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3083,7 +3091,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>24032417.5</v>
+        <v>778105448.65</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3091,7 +3099,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>24701450.4</v>
+        <v>802806899.05</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3099,7 +3107,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>25382028.75</v>
+        <v>828188927.8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3107,7 +3115,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>26074273.6</v>
+        <v>854263201.4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3115,7 +3123,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>26778306.6</v>
+        <v>881041508</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3123,7 +3131,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>27494250</v>
+        <v>908535758</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3131,7 +3139,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>28222226.65</v>
+        <v>936757984.65</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3139,7 +3147,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>28962359.9999999</v>
+        <v>965720344.65</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3147,7 +3155,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>29714774.0999999</v>
+        <v>995435118.75</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3155,7 +3163,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>30479593.5999999</v>
+        <v>1025914712.35</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3163,7 +3171,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>31256943.7499999</v>
+        <v>1057171656.1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3171,7 +3179,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>32046950.3999999</v>
+        <v>1089218606.5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3179,7 +3187,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>32849739.9999999</v>
+        <v>1122068346.5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3187,7 +3195,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>33665439.5999999</v>
+        <v>1155733786.1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3195,7 +3203,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>34494176.8499999</v>
+        <v>1190227962.95</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3203,7 +3211,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>35336079.9999999</v>
+        <v>1225564042.95</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3211,7 +3219,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>36191277.8999999</v>
+        <v>1261755320.85</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3219,7 +3227,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>37059899.9999999</v>
+        <v>1298815220.85</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3227,7 +3235,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>37942076.3499999</v>
+        <v>1336757297.2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3235,7 +3243,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>38837937.5999999</v>
+        <v>1375595234.8</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3243,7 +3251,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>39747614.9999999</v>
+        <v>1415342849.8</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3251,7 +3259,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>40671240.3999999</v>
+        <v>1456014090.2</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3259,7 +3267,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>41608946.2499999</v>
+        <v>1497623036.45</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3267,7 +3275,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>42560865.5999999</v>
+        <v>1540183902.05</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3275,7 +3283,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43527132.0999999</v>
+        <v>1583711034.15</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3283,7 +3291,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>44507879.9999999</v>
+        <v>1628218914.15</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3291,7 +3299,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>45503244.1499999</v>
+        <v>1673722158.3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3299,7 +3307,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>46513359.9999999</v>
+        <v>1720235518.3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3307,7 +3315,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>47538363.5999999</v>
+        <v>1767773881.9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3315,7 +3323,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>48578391.5999999</v>
+        <v>1816352273.5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3323,7 +3331,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>49633581.2499999</v>
+        <v>1865985854.75</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3331,7 +3339,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>50704070.3999999</v>
+        <v>1916689925.15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3339,7 +3347,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>51789997.4999999</v>
+        <v>1968479922.65</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3347,7 +3355,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>52891501.5999999</v>
+        <v>2021371424.25</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3355,7 +3363,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>54008722.3499999</v>
+        <v>2075380146.6</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3363,7 +3371,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>55141799.9999999</v>
+        <v>2130521946.6</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3371,7 +3379,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>56290875.3999999</v>
+        <v>2186812822</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3379,7 +3387,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>57456089.9999999</v>
+        <v>2244268912</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3387,7 +3395,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>58637585.8499999</v>
+        <v>2302906497.85</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3395,7 +3403,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>59835505.5999999</v>
+        <v>2362742003.45</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3403,7 +3411,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>61049992.4999999</v>
+        <v>2423791995.95</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3411,7 +3419,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>62281190.3999999</v>
+        <v>2486073186.35</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3419,7 +3427,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>63529243.7499999</v>
+        <v>2549602430.1</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3427,7 +3435,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>64794297.5999999</v>
+        <v>2614396727.7</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3435,7 +3443,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>66076497.5999999</v>
+        <v>2680473225.3</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3443,7 +3451,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>67375989.9999999</v>
+        <v>2747849215.3</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3451,7 +3459,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>68692921.6499999</v>
+        <v>2816542136.95</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3459,7 +3467,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>70027439.9999999</v>
+        <v>2886569576.95</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3467,7 +3475,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>71379693.0999999</v>
+        <v>2957949270.05</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3475,7 +3483,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>72749829.5999999</v>
+        <v>3030699099.65</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3483,7 +3491,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>74137998.7499999</v>
+        <v>3104837098.4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3491,7 +3499,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>75544350.3999999</v>
+        <v>3180381448.8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3499,7 +3507,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>76969034.9999999</v>
+        <v>3257350483.8</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3507,7 +3515,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>78412203.5999999</v>
+        <v>3335762687.4</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3515,7 +3523,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>79874007.8499999</v>
+        <v>3415636695.25</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3523,7 +3531,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>81354599.9999999</v>
+        <v>3496991295.25</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3531,7 +3539,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>82854132.8999999</v>
+        <v>3579845428.15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3539,7 +3547,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>84372759.9999999</v>
+        <v>3664218188.15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3547,7 +3555,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>85910635.3499999</v>
+        <v>3750128823.5</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3555,7 +3563,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>87467913.5999999</v>
+        <v>3837596737.1</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3563,7 +3571,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>89044749.9999999</v>
+        <v>3926641487.1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3571,7 +3579,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>90641300.3999999</v>
+        <v>4017282787.5</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3579,7 +3587,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>92257721.2499999</v>
+        <v>4109540508.75</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3587,7 +3595,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>93894169.5999998</v>
+        <v>4203434678.35</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3595,7 +3603,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>95550803.0999999</v>
+        <v>4298985481.45</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3603,7 +3611,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>97227779.9999997</v>
+        <v>4396213261.45</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3611,7 +3619,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>98925259.1499997</v>
+        <v>4495138520.6</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3619,7 +3627,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>100643400</v>
+        <v>4595781920.6</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3627,7 +3635,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>102382362.6</v>
+        <v>4698164283.2</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3635,7 +3643,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>104142307.6</v>
+        <v>4802306590.8</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3643,7 +3651,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>105923396.25</v>
+        <v>4908229987.05</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3651,7 +3659,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>107725790.4</v>
+        <v>5015955777.45</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3659,7 +3667,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>109549652.5</v>
+        <v>5125505429.95</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3667,7 +3675,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>111395145.6</v>
+        <v>5236900575.54999</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3675,7 +3683,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>113262433.35</v>
+        <v>5350163008.89999</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3683,7 +3691,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>115151680</v>
+        <v>5465314688.89999</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3691,7 +3699,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>117063050.4</v>
+        <v>5582377739.29999</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3699,7 +3707,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>118996710</v>
+        <v>5701374449.29999</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3707,7 +3715,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>120952824.85</v>
+        <v>5822327274.14999</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3715,7 +3723,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>122931561.6</v>
+        <v>5945258835.74999</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3723,7 +3731,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>124933087.5</v>
+        <v>6070191923.24999</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3731,7 +3739,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>126957570.4</v>
+        <v>6197149493.64999</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3739,7 +3747,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>129005178.75</v>
+        <v>6326154672.39999</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3747,7 +3755,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>131076081.6</v>
+        <v>6457230753.99999</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3755,7 +3763,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>133170448.6</v>
+        <v>6590401202.59999</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3763,7 +3771,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>135288450</v>
+        <v>6725689652.59999</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3771,7 +3779,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>137430256.65</v>
+        <v>6863119909.24999</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3779,7 +3787,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>139596040</v>
+        <v>7002715949.24999</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3787,7 +3795,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>141785972.1</v>
+        <v>7144501921.34999</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3795,7 +3803,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>144000225.6</v>
+        <v>7288502146.94999</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3803,7 +3811,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>146238973.75</v>
+        <v>7434741120.69999</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3811,7 +3819,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>148502390.4</v>
+        <v>7583243511.09999</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3819,7 +3827,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>150790650</v>
+        <v>7734034161.09999</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3827,7 +3835,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>153103927.6</v>
+        <v>7887138088.69999</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3835,7 +3843,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>155442398.85</v>
+        <v>8042580487.54999</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3843,7 +3851,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>157806240</v>
+        <v>8200386727.54999</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3851,7 +3859,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>160195627.9</v>
+        <v>8360582355.44999</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3859,7 +3867,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>162610740</v>
+        <v>8523193095.44999</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3867,7 +3875,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>165051754.35</v>
+        <v>8688244849.79999</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3875,7 +3883,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>167518849.6</v>
+        <v>8855763699.39999</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3883,7 +3891,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>170012205</v>
+        <v>9025775904.39999</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3891,7 +3899,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>172532000.4</v>
+        <v>9198307904.79999</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3899,7 +3907,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>175078416.25</v>
+        <v>9373386321.04999</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3907,7 +3915,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>177651633.6</v>
+        <v>9551037954.64999</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3915,7 +3923,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>180251834.1</v>
+        <v>9731289788.74999</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3923,7 +3931,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>182879200</v>
+        <v>9914168988.74999</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3931,7 +3939,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>195298857</v>
+        <v>10109467845.75</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3939,7 +3947,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>240741600</v>
+        <v>10350209445.75</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3947,7 +3955,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>286940992</v>
+        <v>10637150437.75</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3955,7 +3963,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>333903420</v>
+        <v>10971053857.75</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3963,7 +3971,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>381635295</v>
+        <v>11352689152.75</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3971,7 +3979,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>430143052</v>
+        <v>11782832204.75</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3979,7 +3987,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>479433150</v>
+        <v>12262265354.75</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3987,7 +3995,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>529512072</v>
+        <v>12791777426.75</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3995,7 +4003,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>580386325</v>
+        <v>13372163751.75</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4003,7 +4011,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>632062440</v>
+        <v>14004226191.75</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4011,7 +4019,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>684546972</v>
+        <v>14688773163.75</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4019,7 +4027,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>737846500</v>
+        <v>15426619663.75</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4027,7 +4035,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>791967627</v>
+        <v>16218587290.75</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4035,7 +4043,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>846916980</v>
+        <v>17065504270.75</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4043,7 +4051,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>902701210</v>
+        <v>17968205480.75</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4051,7 +4059,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>959326992</v>
+        <v>18927532472.75</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4059,7 +4067,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>1016801025</v>
+        <v>19944333497.75</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4067,7 +4075,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>1075130032</v>
+        <v>21019463529.75</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4075,7 +4083,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>1134320760</v>
+        <v>22153784289.75</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4083,7 +4091,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>1194379980</v>
+        <v>23348164269.75</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4091,7 +4099,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>1255314487</v>
+        <v>24603478756.75</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4099,7 +4107,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>1317131100</v>
+        <v>25920609856.75</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4107,7 +4115,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>1379836662</v>
+        <v>27300446518.75</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4115,7 +4123,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>1443438040</v>
+        <v>28743884558.75</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4123,7 +4131,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>1507942125</v>
+        <v>30251826683.75</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4131,7 +4139,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>1573355832</v>
+        <v>31825182515.75</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4139,7 +4147,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>1639686100</v>
+        <v>33464868615.75</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4147,7 +4155,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>1706939892</v>
+        <v>35171808507.75</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4155,7 +4163,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>1775124195</v>
+        <v>36946932702.75</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4163,7 +4171,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>1844246020</v>
+        <v>38791178722.75</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4171,7 +4179,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>1914312402</v>
+        <v>40705491124.75</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4179,7 +4187,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>1985330400</v>
+        <v>42690821524.75</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4187,7 +4195,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>2057307097</v>
+        <v>44748128621.75</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4195,7 +4203,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>2130249600</v>
+        <v>46878378221.75</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4203,7 +4211,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>2204165040</v>
+        <v>49082543261.75</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4211,7 +4219,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>2279060572</v>
+        <v>51361603833.75</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4219,7 +4227,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>2354943375</v>
+        <v>53716547208.75</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4227,7 +4235,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>2431820652</v>
+        <v>56148367860.75</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4235,7 +4243,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>2509699630</v>
+        <v>58658067490.75</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4243,7 +4251,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>2588587560</v>
+        <v>61246655050.75</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4251,7 +4259,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>2668491717</v>
+        <v>63915146767.75</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4259,7 +4267,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>2749419400</v>
+        <v>66664566167.75</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4267,7 +4275,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>2831377932</v>
+        <v>69495944099.75</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4275,7 +4283,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>2914374660</v>
+        <v>72410318759.75</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4283,7 +4291,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>2998416955</v>
+        <v>75408735714.75</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4291,7 +4299,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>3083512212</v>
+        <v>78492247926.75</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4299,7 +4307,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>3169667850</v>
+        <v>81661915776.75</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4307,7 +4315,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>3256891312</v>
+        <v>84918807088.75</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4315,7 +4323,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>3345190065</v>
+        <v>88263997153.75</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4323,7 +4331,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>3434571600</v>
+        <v>91698568753.75</v>
       </c>
     </row>
   </sheetData>

--- a/common/CardLvUp.xlsx
+++ b/common/CardLvUp.xlsx
@@ -23,14 +23,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">level </t>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -73,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -108,14 +101,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +123,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +152,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -165,33 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,18 +197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +218,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,7 +279,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +345,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,115 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +513,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -530,6 +538,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,34 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -1107,8 +1100,8 @@
   <sheetPr/>
   <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="F373" sqref="F373"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1118,7 +1111,7 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
